--- a/results/[10_hot_summers]_#_fix_cost.xlsx
+++ b/results/[10_hot_summers]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48.94568441982146</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.8165752676129</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280.025799378624</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>45.83848654995168</v>
+        <v>7071.74531360843</v>
       </c>
       <c r="O2" t="n">
-        <v>66.61804724734513</v>
+        <v>6993.890772562212</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36.69015424150047</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>130.6463787491815</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>472.8347186561244</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>801.9410636593328</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>123.2729395556592</v>
+        <v>9025.389658435586</v>
       </c>
       <c r="O2" t="n">
-        <v>132.6399479448655</v>
+        <v>9724.983840854013</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.48338536582979</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>271.5248323297333</v>
+        <v>13034.96639789043</v>
       </c>
       <c r="O2" t="n">
-        <v>243.9727809150735</v>
+        <v>12860.89728144265</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.48338536582979</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>271.5248323297333</v>
+        <v>13152.52576651623</v>
       </c>
       <c r="O2" t="n">
-        <v>251.715186694466</v>
+        <v>12860.89728144265</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105.4347953195339</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>271.5248323297333</v>
+        <v>13601.74312066917</v>
       </c>
       <c r="O2" t="n">
-        <v>258.2426741375975</v>
+        <v>14937.85618588151</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105.4347953195339</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>271.5248323297333</v>
+        <v>13601.74312066917</v>
       </c>
       <c r="O2" t="n">
-        <v>258.2426741375975</v>
+        <v>14937.85618588151</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_fix_cost.xlsx
+++ b/results/[10_hot_summers]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1053.764464845725</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>281.6081816490545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13155.20691895259</v>
+        <v>29044.8710791117</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19980.48185997161</v>
+        <v>14901.67422553115</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>50875.914042756</v>
       </c>
       <c r="M2" t="n">
-        <v>6228.188248753653</v>
+        <v>11229.470312225</v>
       </c>
       <c r="N2" t="n">
-        <v>5913.513017442464</v>
+        <v>7247.308947314462</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.812892815397</v>
+        <v>6890.471638847674</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5411.642564505662</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>3636.073638914573</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41560.59089239476</v>
+        <v>45890.08104099892</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36247.97434061001</v>
+        <v>36361.75759182434</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108656.3418978489</v>
+        <v>63083.39540355118</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.60158592069</v>
+        <v>17442.4765456975</v>
       </c>
       <c r="N2" t="n">
-        <v>18843.42116196303</v>
+        <v>9351.077465916849</v>
       </c>
       <c r="O2" t="n">
-        <v>10070.13194695034</v>
+        <v>8472.471324946595</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11134.38907540412</v>
+        <v>2148.160171297619</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>5814.069708004545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101006.6785490109</v>
+        <v>57548.65702072511</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94373.75622537901</v>
+        <v>47220.76837855846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156318.2877440624</v>
+        <v>63083.39540355118</v>
       </c>
       <c r="M2" t="n">
-        <v>62862.41217345842</v>
+        <v>23203.20223601122</v>
       </c>
       <c r="N2" t="n">
-        <v>28754.4369018867</v>
+        <v>13680.12751419989</v>
       </c>
       <c r="O2" t="n">
-        <v>26297.1955770261</v>
+        <v>13142.91637740311</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11134.38907540412</v>
+        <v>2148.160171297619</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>5814.069708004545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101006.6785490109</v>
+        <v>57548.65702072511</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94373.75622537901</v>
+        <v>47220.76837855846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156318.2877440624</v>
+        <v>63083.39540355118</v>
       </c>
       <c r="M2" t="n">
-        <v>62862.41217345842</v>
+        <v>23203.20223601122</v>
       </c>
       <c r="N2" t="n">
-        <v>28754.4369018867</v>
+        <v>13680.12751419989</v>
       </c>
       <c r="O2" t="n">
-        <v>26297.1955770261</v>
+        <v>13142.91637740311</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11134.38907540412</v>
+        <v>2148.160171297619</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>5814.069708004545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101006.6785490109</v>
+        <v>57548.65702072511</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94373.75622537901</v>
+        <v>47220.76837855846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156318.2877440624</v>
+        <v>63083.39540355118</v>
       </c>
       <c r="M2" t="n">
-        <v>62862.41217345842</v>
+        <v>23203.20223601122</v>
       </c>
       <c r="N2" t="n">
-        <v>28754.4369018867</v>
+        <v>13680.12751419989</v>
       </c>
       <c r="O2" t="n">
-        <v>26297.1955770261</v>
+        <v>13142.91637740311</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11134.38907540412</v>
+        <v>2148.160171297619</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>5814.069708004545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101006.6785490109</v>
+        <v>57548.65702072511</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94373.75622537901</v>
+        <v>47220.76837855846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156318.2877440624</v>
+        <v>63083.39540355118</v>
       </c>
       <c r="M2" t="n">
-        <v>62862.41217345842</v>
+        <v>23203.20223601122</v>
       </c>
       <c r="N2" t="n">
-        <v>28754.4369018867</v>
+        <v>13680.12751419989</v>
       </c>
       <c r="O2" t="n">
-        <v>26297.1955770261</v>
+        <v>13142.91637740311</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_fix_cost.xlsx
+++ b/results/[10_hot_summers]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>281.6081816490545</v>
+        <v>206.21809032</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29044.8710791117</v>
+        <v>29106.92862091724</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266189</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14901.67422553115</v>
+        <v>14865.25872276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50875.914042756</v>
+        <v>50912.59821312752</v>
       </c>
       <c r="M2" t="n">
-        <v>11229.470312225</v>
+        <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7247.308947314462</v>
+        <v>7328.976670900643</v>
       </c>
       <c r="O2" t="n">
-        <v>6890.471638847674</v>
+        <v>6890.515200515629</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3636.073638914573</v>
+        <v>5091.015340752047</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45890.08104099892</v>
+        <v>56635.79900629957</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266189</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36361.75759182434</v>
+        <v>43274.97038643626</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63083.39540355118</v>
+        <v>76623.35806567104</v>
       </c>
       <c r="M2" t="n">
-        <v>17442.4765456975</v>
+        <v>21846.37768011325</v>
       </c>
       <c r="N2" t="n">
-        <v>9351.077465916849</v>
+        <v>10763.76523407172</v>
       </c>
       <c r="O2" t="n">
-        <v>8472.471324946595</v>
+        <v>10417.16268854596</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2148.160171297619</v>
+        <v>2268.065032447391</v>
       </c>
       <c r="B2" t="n">
-        <v>5814.069708004545</v>
+        <v>7085.443311363352</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57548.65702072511</v>
+        <v>67146.71955800704</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266189</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47220.76837855846</v>
+        <v>52279.04146434624</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63083.39540355118</v>
+        <v>76623.35806567104</v>
       </c>
       <c r="M2" t="n">
-        <v>23203.20223601122</v>
+        <v>27553.86123423176</v>
       </c>
       <c r="N2" t="n">
-        <v>13680.12751419989</v>
+        <v>15933.7539799537</v>
       </c>
       <c r="O2" t="n">
-        <v>13142.91637740311</v>
+        <v>15346.85318924903</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2148.160171297619</v>
+        <v>2268.065032447391</v>
       </c>
       <c r="B2" t="n">
-        <v>5814.069708004545</v>
+        <v>7085.443311363352</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57548.65702072511</v>
+        <v>67146.71955800704</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266189</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47220.76837855846</v>
+        <v>52279.04146434624</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63083.39540355118</v>
+        <v>76623.35806567104</v>
       </c>
       <c r="M2" t="n">
-        <v>23203.20223601122</v>
+        <v>27553.86123423176</v>
       </c>
       <c r="N2" t="n">
-        <v>13680.12751419989</v>
+        <v>15933.7539799537</v>
       </c>
       <c r="O2" t="n">
-        <v>13142.91637740311</v>
+        <v>15346.85318924903</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2148.160171297619</v>
+        <v>2268.065032447391</v>
       </c>
       <c r="B2" t="n">
-        <v>5814.069708004545</v>
+        <v>7085.443311363352</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57548.65702072511</v>
+        <v>67146.71955800704</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266189</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47220.76837855846</v>
+        <v>52279.04146434624</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63083.39540355118</v>
+        <v>76623.35806567104</v>
       </c>
       <c r="M2" t="n">
-        <v>23203.20223601122</v>
+        <v>27553.86123423176</v>
       </c>
       <c r="N2" t="n">
-        <v>13680.12751419989</v>
+        <v>15933.7539799537</v>
       </c>
       <c r="O2" t="n">
-        <v>13142.91637740311</v>
+        <v>15346.85318924903</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2148.160171297619</v>
+        <v>2268.065032447391</v>
       </c>
       <c r="B2" t="n">
-        <v>5814.069708004545</v>
+        <v>7085.443311363352</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57548.65702072511</v>
+        <v>67146.71955800704</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266189</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47220.76837855846</v>
+        <v>52279.04146434624</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63083.39540355118</v>
+        <v>76623.35806567104</v>
       </c>
       <c r="M2" t="n">
-        <v>23203.20223601122</v>
+        <v>27553.86123423176</v>
       </c>
       <c r="N2" t="n">
-        <v>13680.12751419989</v>
+        <v>15933.7539799537</v>
       </c>
       <c r="O2" t="n">
-        <v>13142.91637740311</v>
+        <v>15346.85318924903</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_fix_cost.xlsx
+++ b/results/[10_hot_summers]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7071.74531360843</v>
+        <v>7155.07579047334</v>
       </c>
       <c r="O2" t="n">
-        <v>6993.890772562212</v>
+        <v>6980.325566461758</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9025.389658435586</v>
+        <v>10593.94009226292</v>
       </c>
       <c r="O2" t="n">
-        <v>9724.983840854013</v>
+        <v>12063.05946690077</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13034.96639789043</v>
+        <v>15131.8804243991</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.89728144265</v>
+        <v>14761.05157597961</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13152.52576651623</v>
+        <v>15236.2891206102</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.89728144265</v>
+        <v>14761.05157597961</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13601.74312066917</v>
+        <v>15771.80030518411</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.85618588151</v>
+        <v>17096.51756232827</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13601.74312066917</v>
+        <v>15771.80030518411</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.85618588151</v>
+        <v>17096.51756232827</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_fix_cost.xlsx
+++ b/results/[10_hot_summers]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1053.764464845725</v>
+        <v>3903.181680257918</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48024.68820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13155.20691895259</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9578.721511093998</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>19980.48185997161</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6228.188248753653</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5913.513017442464</v>
+        <v>2586.934957752412</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.812892815397</v>
+        <v>1995.76246267978</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5411.642564505662</v>
+        <v>6251.938495682637</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>194733.5848110394</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41560.59089239476</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16456.88206482895</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8139.369299391828</v>
       </c>
       <c r="I2" t="n">
-        <v>36247.97434061001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108656.3418978489</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.60158592069</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18843.42116196303</v>
+        <v>9274.641114027731</v>
       </c>
       <c r="O2" t="n">
-        <v>10070.13194695034</v>
+        <v>6302.647921399345</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11134.38907540412</v>
+        <v>26993.92829089428</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292391.0681716817</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101006.6785490109</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022196</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11632.10224077577</v>
       </c>
       <c r="I2" t="n">
-        <v>94373.75622537901</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156318.2877440624</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62862.41217345842</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28754.4369018867</v>
+        <v>14003.89339372278</v>
       </c>
       <c r="O2" t="n">
-        <v>26297.1955770261</v>
+        <v>9685.332183648134</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11134.38907540412</v>
+        <v>26993.92829089428</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292391.0681716817</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101006.6785490109</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022196</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11632.10224077577</v>
       </c>
       <c r="I2" t="n">
-        <v>94373.75622537901</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156318.2877440624</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62862.41217345842</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28754.4369018867</v>
+        <v>14003.89339372278</v>
       </c>
       <c r="O2" t="n">
-        <v>26297.1955770261</v>
+        <v>9685.332183648134</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11134.38907540412</v>
+        <v>26993.92829089428</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292391.0681716817</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101006.6785490109</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022196</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11632.10224077577</v>
       </c>
       <c r="I2" t="n">
-        <v>94373.75622537901</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156318.2877440624</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62862.41217345842</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28754.4369018867</v>
+        <v>14003.89339372278</v>
       </c>
       <c r="O2" t="n">
-        <v>26297.1955770261</v>
+        <v>9685.332183648134</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11134.38907540412</v>
+        <v>26993.92829089428</v>
       </c>
       <c r="B2" t="n">
-        <v>400.1873339729916</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292391.0681716817</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101006.6785490109</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022196</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11632.10224077577</v>
       </c>
       <c r="I2" t="n">
-        <v>94373.75622537901</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>156318.2877440624</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62862.41217345842</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28754.4369018867</v>
+        <v>14003.89339372278</v>
       </c>
       <c r="O2" t="n">
-        <v>26297.1955770261</v>
+        <v>9685.332183648134</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_fix_cost.xlsx
+++ b/results/[10_hot_summers]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3906.399109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>48.94568441982146</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48353.76274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.8165752676129</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9433.134471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>280.025799378624</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>45.83848654995168</v>
+        <v>2367.37219622158</v>
       </c>
       <c r="O2" t="n">
-        <v>66.61804724734513</v>
+        <v>1995.762462679798</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36.69015424150047</v>
+        <v>6991.052031681918</v>
       </c>
       <c r="B2" t="n">
-        <v>130.6463787491815</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197913.7502057619</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>472.8347186561244</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16452.51445364119</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8194.52068131253</v>
       </c>
       <c r="I2" t="n">
-        <v>801.9410636593328</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>123.2729395556592</v>
+        <v>7544.284082242735</v>
       </c>
       <c r="O2" t="n">
-        <v>132.6399479448655</v>
+        <v>6258.021366348374</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.48338536582979</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>271.5248323297333</v>
+        <v>12889.13275549508</v>
       </c>
       <c r="O2" t="n">
-        <v>243.9727809150735</v>
+        <v>9263.901078056349</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.48338536582979</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>271.5248323297333</v>
+        <v>14046.98250793826</v>
       </c>
       <c r="O2" t="n">
-        <v>251.715186694466</v>
+        <v>9263.901078056349</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105.4347953195339</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>271.5248323297333</v>
+        <v>16880.98779587899</v>
       </c>
       <c r="O2" t="n">
-        <v>258.2426741375975</v>
+        <v>10096.4577740545</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105.4347953195339</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>257.1695622258425</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>996.2490642957112</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>65.57699827256084</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1575.918728261796</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>271.5248323297333</v>
+        <v>16880.98779587899</v>
       </c>
       <c r="O2" t="n">
-        <v>258.2426741375975</v>
+        <v>10096.4577740545</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_fix_cost.xlsx
+++ b/results/[10_hot_summers]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2586.934957752412</v>
+        <v>2586.934957752385</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.76246267978</v>
+        <v>1995.762462679781</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6251.938495682637</v>
+        <v>6251.938495682872</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>194733.5848110394</v>
+        <v>194733.5848110393</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9274.641114027731</v>
+        <v>9274.641114027625</v>
       </c>
       <c r="O2" t="n">
-        <v>6302.647921399345</v>
+        <v>6302.647921399344</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26993.92829089428</v>
+        <v>26993.92829089499</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292391.0681716817</v>
+        <v>292391.0681716814</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788022196</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11632.10224077577</v>
+        <v>11632.1022407756</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14003.89339372278</v>
+        <v>14003.89339372257</v>
       </c>
       <c r="O2" t="n">
-        <v>9685.332183648134</v>
+        <v>9685.332183648292</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26993.92829089428</v>
+        <v>26993.92829089499</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292391.0681716817</v>
+        <v>292391.0681716814</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788022196</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11632.10224077577</v>
+        <v>11632.1022407756</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14003.89339372278</v>
+        <v>14003.89339372257</v>
       </c>
       <c r="O2" t="n">
-        <v>9685.332183648134</v>
+        <v>9685.332183648292</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26993.92829089428</v>
+        <v>26993.92829089499</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292391.0681716817</v>
+        <v>292391.0681716814</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788022196</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11632.10224077577</v>
+        <v>11632.1022407756</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14003.89339372278</v>
+        <v>14003.89339372257</v>
       </c>
       <c r="O2" t="n">
-        <v>9685.332183648134</v>
+        <v>9685.332183648292</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26993.92829089428</v>
+        <v>26993.92829089499</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292391.0681716817</v>
+        <v>292391.0681716814</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788022196</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11632.10224077577</v>
+        <v>11632.1022407756</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14003.89339372278</v>
+        <v>14003.89339372257</v>
       </c>
       <c r="O2" t="n">
-        <v>9685.332183648134</v>
+        <v>9685.332183648292</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_fix_cost.xlsx
+++ b/results/[10_hot_summers]_#_fix_cost.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712660638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7328.976670900643</v>
+        <v>7328.976670901103</v>
       </c>
       <c r="O2" t="n">
         <v>6890.515200515629</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5091.015340752047</v>
+        <v>5091.015340752037</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56635.79900629957</v>
+        <v>56635.79900630147</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712660638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>21846.37768011325</v>
       </c>
       <c r="N2" t="n">
-        <v>10763.76523407172</v>
+        <v>10763.76523407071</v>
       </c>
       <c r="O2" t="n">
-        <v>10417.16268854596</v>
+        <v>10417.16268854597</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2268.065032447391</v>
+        <v>2268.06503244739</v>
       </c>
       <c r="B2" t="n">
-        <v>7085.443311363352</v>
+        <v>7085.443311363351</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67146.71955800704</v>
+        <v>67146.7195580073</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712660638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52279.04146434624</v>
+        <v>52279.0414643471</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>27553.86123423176</v>
       </c>
       <c r="N2" t="n">
-        <v>15933.7539799537</v>
+        <v>15933.75397995398</v>
       </c>
       <c r="O2" t="n">
-        <v>15346.85318924903</v>
+        <v>15346.85318924837</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2268.065032447391</v>
+        <v>2268.06503244739</v>
       </c>
       <c r="B2" t="n">
-        <v>7085.443311363352</v>
+        <v>7085.443311363351</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67146.71955800704</v>
+        <v>67146.7195580073</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712660638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52279.04146434624</v>
+        <v>52279.0414643471</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>27553.86123423176</v>
       </c>
       <c r="N2" t="n">
-        <v>15933.7539799537</v>
+        <v>15933.75397995398</v>
       </c>
       <c r="O2" t="n">
-        <v>15346.85318924903</v>
+        <v>15346.85318924837</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2268.065032447391</v>
+        <v>2268.06503244739</v>
       </c>
       <c r="B2" t="n">
-        <v>7085.443311363352</v>
+        <v>7085.443311363351</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67146.71955800704</v>
+        <v>67146.7195580073</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712660638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52279.04146434624</v>
+        <v>52279.0414643471</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>27553.86123423176</v>
       </c>
       <c r="N2" t="n">
-        <v>15933.7539799537</v>
+        <v>15933.75397995398</v>
       </c>
       <c r="O2" t="n">
-        <v>15346.85318924903</v>
+        <v>15346.85318924837</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2268.065032447391</v>
+        <v>2268.06503244739</v>
       </c>
       <c r="B2" t="n">
-        <v>7085.443311363352</v>
+        <v>7085.443311363351</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67146.71955800704</v>
+        <v>67146.7195580073</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712660638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52279.04146434624</v>
+        <v>52279.0414643471</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>27553.86123423176</v>
       </c>
       <c r="N2" t="n">
-        <v>15933.7539799537</v>
+        <v>15933.75397995398</v>
       </c>
       <c r="O2" t="n">
-        <v>15346.85318924903</v>
+        <v>15346.85318924837</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_fix_cost.xlsx
+++ b/results/[10_hot_summers]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7155.07579047334</v>
+        <v>7155.075790473336</v>
       </c>
       <c r="O2" t="n">
-        <v>6980.325566461758</v>
+        <v>6980.325566461754</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
         <v>10593.94009226292</v>
       </c>
       <c r="O2" t="n">
-        <v>12063.05946690077</v>
+        <v>12080.30369160272</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15131.8804243991</v>
+        <v>15119.1038010506</v>
       </c>
       <c r="O2" t="n">
-        <v>14761.05157597961</v>
+        <v>14761.94879382113</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15236.2891206102</v>
+        <v>15226.22770907155</v>
       </c>
       <c r="O2" t="n">
-        <v>14761.05157597961</v>
+        <v>14761.94879382113</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15771.80030518411</v>
+        <v>15770.95526052178</v>
       </c>
       <c r="O2" t="n">
-        <v>17096.51756232827</v>
+        <v>17097.41478016988</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15771.80030518411</v>
+        <v>15770.95526052178</v>
       </c>
       <c r="O2" t="n">
-        <v>17096.51756232827</v>
+        <v>17097.41478016988</v>
       </c>
     </row>
   </sheetData>
